--- a/tests/eg-languages-valid.xlsx
+++ b/tests/eg-languages-valid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/surround/VocExcel/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jamie\surround\VocExcel\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A36F4-B90D-A94B-8C70-31A1B2CF6EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145C9417-3192-41B8-8DEE-F82D862B279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="500" windowWidth="36000" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22845" yWindow="0" windowWidth="22740" windowHeight="15600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vocabulary" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="1917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="1920">
   <si>
     <t>When was this vocabulary first created?</t>
   </si>
@@ -6033,6 +6033,15 @@
     <t>ISO 639-2 or 639-3 two or three letter language code for the Preferred Label.
 To create a Concept with multiple Preferred Labels in different languages, repeat the entire Concept row in Excel and change only the Preferred Label and the Preferred Lanble Language Code. See example - multilang Worksheet for an example.
 To assign multiple langage labels to the You may comma-separate multiple language labels if multiple apply to the same term e.g. for the Canadian province Yukno, you may indicate eng,fra to have "Yukno"@eng &amp; "Yukon"@fra.</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>https://linked.data.gov.au/org/des</t>
+  </si>
+  <si>
+    <t>Department of Environment and Science, Queensland Government</t>
   </si>
 </sst>
 </file>
@@ -6599,26 +6608,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="43.83203125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="56.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="36" customWidth="1"/>
     <col min="6" max="6" width="21" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61" style="36" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
@@ -6632,7 +6641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
@@ -6646,7 +6655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
@@ -6660,7 +6669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>40</v>
       </c>
@@ -6674,7 +6683,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>41</v>
       </c>
@@ -6688,7 +6697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
@@ -6702,7 +6711,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
@@ -6716,7 +6725,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
@@ -6730,7 +6739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
@@ -6744,7 +6753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>51</v>
       </c>
@@ -6758,7 +6767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>131</v>
       </c>
@@ -6769,18 +6778,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
     </row>
-    <row r="15" spans="1:10" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>31</v>
       </c>
@@ -6812,7 +6821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>139</v>
       </c>
@@ -6831,7 +6840,7 @@
       </c>
       <c r="J16" s="36"/>
     </row>
-    <row r="17" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>152</v>
       </c>
@@ -6852,7 +6861,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>156</v>
       </c>
@@ -6871,7 +6880,7 @@
       </c>
       <c r="J18" s="36"/>
     </row>
-    <row r="19" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>160</v>
       </c>
@@ -6890,7 +6899,7 @@
       </c>
       <c r="J19" s="36"/>
     </row>
-    <row r="20" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>164</v>
       </c>
@@ -6909,7 +6918,7 @@
       </c>
       <c r="J20" s="36"/>
     </row>
-    <row r="21" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>168</v>
       </c>
@@ -6928,7 +6937,7 @@
       </c>
       <c r="J21" s="36"/>
     </row>
-    <row r="22" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>172</v>
       </c>
@@ -6947,7 +6956,7 @@
       </c>
       <c r="J22" s="36"/>
     </row>
-    <row r="23" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>176</v>
       </c>
@@ -6966,7 +6975,7 @@
       </c>
       <c r="J23" s="36"/>
     </row>
-    <row r="24" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>180</v>
       </c>
@@ -6987,7 +6996,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>184</v>
       </c>
@@ -7006,7 +7015,7 @@
       </c>
       <c r="J25" s="36"/>
     </row>
-    <row r="26" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>188</v>
       </c>
@@ -7025,7 +7034,7 @@
       </c>
       <c r="J26" s="36"/>
     </row>
-    <row r="27" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>192</v>
       </c>
@@ -7044,7 +7053,7 @@
       </c>
       <c r="J27" s="36"/>
     </row>
-    <row r="28" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>196</v>
       </c>
@@ -7063,7 +7072,7 @@
       </c>
       <c r="J28" s="36"/>
     </row>
-    <row r="29" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>145</v>
       </c>
@@ -7090,7 +7099,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>147</v>
       </c>
@@ -7112,7 +7121,7 @@
       </c>
       <c r="J30" s="36"/>
     </row>
-    <row r="31" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>203</v>
       </c>
@@ -7134,7 +7143,7 @@
       </c>
       <c r="J31" s="36"/>
     </row>
-    <row r="32" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>206</v>
       </c>
@@ -7156,7 +7165,7 @@
       </c>
       <c r="J32" s="36"/>
     </row>
-    <row r="33" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>209</v>
       </c>
@@ -7178,7 +7187,7 @@
       </c>
       <c r="J33" s="36"/>
     </row>
-    <row r="34" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>212</v>
       </c>
@@ -7200,7 +7209,7 @@
       </c>
       <c r="J34" s="36"/>
     </row>
-    <row r="35" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>215</v>
       </c>
@@ -7222,7 +7231,7 @@
       </c>
       <c r="J35" s="36"/>
     </row>
-    <row r="36" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>218</v>
       </c>
@@ -7244,7 +7253,7 @@
       </c>
       <c r="J36" s="36"/>
     </row>
-    <row r="37" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>221</v>
       </c>
@@ -7266,7 +7275,7 @@
       </c>
       <c r="J37" s="36"/>
     </row>
-    <row r="38" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>224</v>
       </c>
@@ -7285,7 +7294,7 @@
       </c>
       <c r="J38" s="36"/>
     </row>
-    <row r="39" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>228</v>
       </c>
@@ -7304,7 +7313,7 @@
       </c>
       <c r="J39" s="36"/>
     </row>
-    <row r="40" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>232</v>
       </c>
@@ -7323,7 +7332,7 @@
       </c>
       <c r="J40" s="36"/>
     </row>
-    <row r="41" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>236</v>
       </c>
@@ -7342,7 +7351,7 @@
       </c>
       <c r="J41" s="36"/>
     </row>
-    <row r="42" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>240</v>
       </c>
@@ -7361,7 +7370,7 @@
       </c>
       <c r="J42" s="36"/>
     </row>
-    <row r="43" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>244</v>
       </c>
@@ -7380,7 +7389,7 @@
       </c>
       <c r="J43" s="36"/>
     </row>
-    <row r="44" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>248</v>
       </c>
@@ -7399,7 +7408,7 @@
       </c>
       <c r="J44" s="36"/>
     </row>
-    <row r="45" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>252</v>
       </c>
@@ -7418,7 +7427,7 @@
       </c>
       <c r="J45" s="36"/>
     </row>
-    <row r="46" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>256</v>
       </c>
@@ -7437,7 +7446,7 @@
       </c>
       <c r="J46" s="36"/>
     </row>
-    <row r="47" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>260</v>
       </c>
@@ -7456,7 +7465,7 @@
       </c>
       <c r="J47" s="36"/>
     </row>
-    <row r="48" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>264</v>
       </c>
@@ -7475,7 +7484,7 @@
       </c>
       <c r="J48" s="36"/>
     </row>
-    <row r="49" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>268</v>
       </c>
@@ -7494,7 +7503,7 @@
       </c>
       <c r="J49" s="36"/>
     </row>
-    <row r="50" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>272</v>
       </c>
@@ -7513,7 +7522,7 @@
       </c>
       <c r="J50" s="36"/>
     </row>
-    <row r="51" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>276</v>
       </c>
@@ -7534,7 +7543,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>281</v>
       </c>
@@ -7555,7 +7564,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>285</v>
       </c>
@@ -7574,7 +7583,7 @@
       </c>
       <c r="J53" s="36"/>
     </row>
-    <row r="54" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>289</v>
       </c>
@@ -7593,7 +7602,7 @@
       </c>
       <c r="J54" s="36"/>
     </row>
-    <row r="55" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>293</v>
       </c>
@@ -7612,7 +7621,7 @@
       </c>
       <c r="J55" s="36"/>
     </row>
-    <row r="56" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>297</v>
       </c>
@@ -7631,7 +7640,7 @@
       </c>
       <c r="J56" s="36"/>
     </row>
-    <row r="57" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>301</v>
       </c>
@@ -7650,7 +7659,7 @@
       </c>
       <c r="J57" s="36"/>
     </row>
-    <row r="58" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>305</v>
       </c>
@@ -7669,7 +7678,7 @@
       </c>
       <c r="J58" s="36"/>
     </row>
-    <row r="59" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>309</v>
       </c>
@@ -7688,7 +7697,7 @@
       </c>
       <c r="J59" s="36"/>
     </row>
-    <row r="60" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>313</v>
       </c>
@@ -7707,7 +7716,7 @@
       </c>
       <c r="J60" s="36"/>
     </row>
-    <row r="61" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>317</v>
       </c>
@@ -7726,7 +7735,7 @@
       </c>
       <c r="J61" s="36"/>
     </row>
-    <row r="62" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>321</v>
       </c>
@@ -7745,7 +7754,7 @@
       </c>
       <c r="J62" s="36"/>
     </row>
-    <row r="63" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>325</v>
       </c>
@@ -7764,7 +7773,7 @@
       </c>
       <c r="J63" s="36"/>
     </row>
-    <row r="64" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="390" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>329</v>
       </c>
@@ -7786,7 +7795,7 @@
       </c>
       <c r="J64" s="36"/>
     </row>
-    <row r="65" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>334</v>
       </c>
@@ -7808,7 +7817,7 @@
       </c>
       <c r="J65" s="36"/>
     </row>
-    <row r="66" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>334</v>
       </c>
@@ -7830,7 +7839,7 @@
       </c>
       <c r="J66" s="36"/>
     </row>
-    <row r="67" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>338</v>
       </c>
@@ -7852,7 +7861,7 @@
       </c>
       <c r="J67" s="36"/>
     </row>
-    <row r="68" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>338</v>
       </c>
@@ -7874,7 +7883,7 @@
       </c>
       <c r="J68" s="36"/>
     </row>
-    <row r="69" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>342</v>
       </c>
@@ -7896,7 +7905,7 @@
       </c>
       <c r="J69" s="36"/>
     </row>
-    <row r="70" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>345</v>
       </c>
@@ -7918,7 +7927,7 @@
       </c>
       <c r="J70" s="36"/>
     </row>
-    <row r="71" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>345</v>
       </c>
@@ -7940,7 +7949,7 @@
       </c>
       <c r="J71" s="36"/>
     </row>
-    <row r="72" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>349</v>
       </c>
@@ -7962,7 +7971,7 @@
       </c>
       <c r="J72" s="36"/>
     </row>
-    <row r="73" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>349</v>
       </c>
@@ -7984,7 +7993,7 @@
       </c>
       <c r="J73" s="36"/>
     </row>
-    <row r="74" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>353</v>
       </c>
@@ -8006,7 +8015,7 @@
       </c>
       <c r="J74" s="36"/>
     </row>
-    <row r="75" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>353</v>
       </c>
@@ -8028,7 +8037,7 @@
       </c>
       <c r="J75" s="36"/>
     </row>
-    <row r="76" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>356</v>
       </c>
@@ -8050,7 +8059,7 @@
       </c>
       <c r="J76" s="36"/>
     </row>
-    <row r="77" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>356</v>
       </c>
@@ -8072,7 +8081,7 @@
       </c>
       <c r="J77" s="36"/>
     </row>
-    <row r="78" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>360</v>
       </c>
@@ -8094,7 +8103,7 @@
       </c>
       <c r="J78" s="36"/>
     </row>
-    <row r="79" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>363</v>
       </c>
@@ -8116,7 +8125,7 @@
       </c>
       <c r="J79" s="36"/>
     </row>
-    <row r="80" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>366</v>
       </c>
@@ -8138,7 +8147,7 @@
       </c>
       <c r="J80" s="36"/>
     </row>
-    <row r="81" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>366</v>
       </c>
@@ -8160,7 +8169,7 @@
       </c>
       <c r="J81" s="36"/>
     </row>
-    <row r="82" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>369</v>
       </c>
@@ -8182,7 +8191,7 @@
       </c>
       <c r="J82" s="36"/>
     </row>
-    <row r="83" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>369</v>
       </c>
@@ -8204,7 +8213,7 @@
       </c>
       <c r="J83" s="36"/>
     </row>
-    <row r="84" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>372</v>
       </c>
@@ -8226,7 +8235,7 @@
       </c>
       <c r="J84" s="36"/>
     </row>
-    <row r="85" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>375</v>
       </c>
@@ -8248,7 +8257,7 @@
       </c>
       <c r="J85" s="36"/>
     </row>
-    <row r="86" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>378</v>
       </c>
@@ -8267,7 +8276,7 @@
       </c>
       <c r="J86" s="36"/>
     </row>
-    <row r="87" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>382</v>
       </c>
@@ -8286,7 +8295,7 @@
       </c>
       <c r="J87" s="36"/>
     </row>
-    <row r="88" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>386</v>
       </c>
@@ -8305,7 +8314,7 @@
       </c>
       <c r="J88" s="36"/>
     </row>
-    <row r="89" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>390</v>
       </c>
@@ -8332,7 +8341,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>396</v>
       </c>
@@ -8356,7 +8365,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>398</v>
       </c>
@@ -8378,7 +8387,7 @@
       </c>
       <c r="J91" s="36"/>
     </row>
-    <row r="92" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>401</v>
       </c>
@@ -8400,7 +8409,7 @@
       </c>
       <c r="J92" s="36"/>
     </row>
-    <row r="93" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>404</v>
       </c>
@@ -8422,7 +8431,7 @@
       </c>
       <c r="J93" s="36"/>
     </row>
-    <row r="94" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>406</v>
       </c>
@@ -8444,7 +8453,7 @@
       </c>
       <c r="J94" s="36"/>
     </row>
-    <row r="95" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>409</v>
       </c>
@@ -8466,7 +8475,7 @@
       </c>
       <c r="J95" s="36"/>
     </row>
-    <row r="96" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>412</v>
       </c>
@@ -8488,7 +8497,7 @@
       </c>
       <c r="J96" s="36"/>
     </row>
-    <row r="97" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>415</v>
       </c>
@@ -8512,7 +8521,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>419</v>
       </c>
@@ -8534,7 +8543,7 @@
       </c>
       <c r="J98" s="36"/>
     </row>
-    <row r="99" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>422</v>
       </c>
@@ -8556,7 +8565,7 @@
       </c>
       <c r="J99" s="36"/>
     </row>
-    <row r="100" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>424</v>
       </c>
@@ -8578,7 +8587,7 @@
       </c>
       <c r="J100" s="36"/>
     </row>
-    <row r="101" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>427</v>
       </c>
@@ -8600,7 +8609,7 @@
       </c>
       <c r="J101" s="36"/>
     </row>
-    <row r="102" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>430</v>
       </c>
@@ -8622,7 +8631,7 @@
       </c>
       <c r="J102" s="36"/>
     </row>
-    <row r="103" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>432</v>
       </c>
@@ -8644,7 +8653,7 @@
       </c>
       <c r="J103" s="36"/>
     </row>
-    <row r="104" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>434</v>
       </c>
@@ -8666,7 +8675,7 @@
       </c>
       <c r="J104" s="36"/>
     </row>
-    <row r="105" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>436</v>
       </c>
@@ -8688,7 +8697,7 @@
       </c>
       <c r="J105" s="36"/>
     </row>
-    <row r="106" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>438</v>
       </c>
@@ -8707,7 +8716,7 @@
       </c>
       <c r="J106" s="36"/>
     </row>
-    <row r="107" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>442</v>
       </c>
@@ -8728,7 +8737,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>447</v>
       </c>
@@ -8749,7 +8758,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>452</v>
       </c>
@@ -8768,7 +8777,7 @@
       </c>
       <c r="J109" s="36"/>
     </row>
-    <row r="110" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>456</v>
       </c>
@@ -8787,7 +8796,7 @@
       </c>
       <c r="J110" s="36"/>
     </row>
-    <row r="111" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>460</v>
       </c>
@@ -8808,7 +8817,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>464</v>
       </c>
@@ -8827,7 +8836,7 @@
       </c>
       <c r="J112" s="36"/>
     </row>
-    <row r="113" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>468</v>
       </c>
@@ -8848,7 +8857,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>473</v>
       </c>
@@ -8867,7 +8876,7 @@
       </c>
       <c r="J114" s="36"/>
     </row>
-    <row r="115" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>477</v>
       </c>
@@ -8886,7 +8895,7 @@
       </c>
       <c r="J115" s="36"/>
     </row>
-    <row r="116" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>480</v>
       </c>
@@ -8907,7 +8916,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>485</v>
       </c>
@@ -8926,7 +8935,7 @@
       </c>
       <c r="J117" s="36"/>
     </row>
-    <row r="118" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>489</v>
       </c>
@@ -8947,7 +8956,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>493</v>
       </c>
@@ -8966,7 +8975,7 @@
       </c>
       <c r="J119" s="36"/>
     </row>
-    <row r="120" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>497</v>
       </c>
@@ -8987,7 +8996,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>502</v>
       </c>
@@ -9006,7 +9015,7 @@
       </c>
       <c r="J121" s="36"/>
     </row>
-    <row r="122" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>506</v>
       </c>
@@ -9027,7 +9036,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>511</v>
       </c>
@@ -9046,7 +9055,7 @@
       </c>
       <c r="J123" s="36"/>
     </row>
-    <row r="124" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>515</v>
       </c>
@@ -9065,7 +9074,7 @@
       </c>
       <c r="J124" s="36"/>
     </row>
-    <row r="125" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>519</v>
       </c>
@@ -9086,7 +9095,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>523</v>
       </c>
@@ -9105,7 +9114,7 @@
       </c>
       <c r="J126" s="36"/>
     </row>
-    <row r="127" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>527</v>
       </c>
@@ -9124,7 +9133,7 @@
       </c>
       <c r="J127" s="36"/>
     </row>
-    <row r="128" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>531</v>
       </c>
@@ -9145,7 +9154,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>535</v>
       </c>
@@ -9164,7 +9173,7 @@
       </c>
       <c r="J129" s="36"/>
     </row>
-    <row r="130" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>539</v>
       </c>
@@ -9183,7 +9192,7 @@
       </c>
       <c r="J130" s="36"/>
     </row>
-    <row r="131" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>543</v>
       </c>
@@ -9204,7 +9213,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>548</v>
       </c>
@@ -9223,7 +9232,7 @@
       </c>
       <c r="J132" s="36"/>
     </row>
-    <row r="133" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>552</v>
       </c>
@@ -9242,7 +9251,7 @@
       </c>
       <c r="J133" s="36"/>
     </row>
-    <row r="134" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>556</v>
       </c>
@@ -9263,7 +9272,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>561</v>
       </c>
@@ -9284,7 +9293,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>566</v>
       </c>
@@ -9305,7 +9314,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>570</v>
       </c>
@@ -9326,7 +9335,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>574</v>
       </c>
@@ -9347,7 +9356,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>579</v>
       </c>
@@ -9368,7 +9377,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>584</v>
       </c>
@@ -9389,7 +9398,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>589</v>
       </c>
@@ -9408,7 +9417,7 @@
       </c>
       <c r="J141" s="36"/>
     </row>
-    <row r="142" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>593</v>
       </c>
@@ -9427,7 +9436,7 @@
       </c>
       <c r="J142" s="36"/>
     </row>
-    <row r="143" spans="1:10" ht="365" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>597</v>
       </c>
@@ -9448,7 +9457,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>602</v>
       </c>
@@ -9469,7 +9478,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>607</v>
       </c>
@@ -9488,7 +9497,7 @@
       </c>
       <c r="J145" s="36"/>
     </row>
-    <row r="146" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>611</v>
       </c>
@@ -9509,7 +9518,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>616</v>
       </c>
@@ -9530,7 +9539,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>621</v>
       </c>
@@ -9551,7 +9560,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>626</v>
       </c>
@@ -9572,7 +9581,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>631</v>
       </c>
@@ -9593,7 +9602,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>635</v>
       </c>
@@ -9614,7 +9623,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>640</v>
       </c>
@@ -9633,7 +9642,7 @@
       </c>
       <c r="J152" s="36"/>
     </row>
-    <row r="153" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>644</v>
       </c>
@@ -9654,7 +9663,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>648</v>
       </c>
@@ -9673,7 +9682,7 @@
       </c>
       <c r="J154" s="36"/>
     </row>
-    <row r="155" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>652</v>
       </c>
@@ -9692,7 +9701,7 @@
       </c>
       <c r="J155" s="36"/>
     </row>
-    <row r="156" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>656</v>
       </c>
@@ -9711,7 +9720,7 @@
       </c>
       <c r="J156" s="36"/>
     </row>
-    <row r="157" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>660</v>
       </c>
@@ -9730,7 +9739,7 @@
       </c>
       <c r="J157" s="36"/>
     </row>
-    <row r="158" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>664</v>
       </c>
@@ -9751,7 +9760,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>669</v>
       </c>
@@ -9772,7 +9781,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>674</v>
       </c>
@@ -9793,7 +9802,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>679</v>
       </c>
@@ -9814,7 +9823,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>684</v>
       </c>
@@ -9833,7 +9842,7 @@
       </c>
       <c r="J162" s="36"/>
     </row>
-    <row r="163" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>688</v>
       </c>
@@ -9854,7 +9863,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>692</v>
       </c>
@@ -9875,7 +9884,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>696</v>
       </c>
@@ -9894,7 +9903,7 @@
       </c>
       <c r="J165" s="36"/>
     </row>
-    <row r="166" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>700</v>
       </c>
@@ -9913,7 +9922,7 @@
       </c>
       <c r="J166" s="36"/>
     </row>
-    <row r="167" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>704</v>
       </c>
@@ -9934,7 +9943,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>708</v>
       </c>
@@ -9953,7 +9962,7 @@
       </c>
       <c r="J168" s="36"/>
     </row>
-    <row r="169" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>712</v>
       </c>
@@ -9974,7 +9983,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>716</v>
       </c>
@@ -9993,7 +10002,7 @@
       </c>
       <c r="J170" s="36"/>
     </row>
-    <row r="171" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>720</v>
       </c>
@@ -10012,7 +10021,7 @@
       </c>
       <c r="J171" s="36"/>
     </row>
-    <row r="172" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>724</v>
       </c>
@@ -10031,7 +10040,7 @@
       </c>
       <c r="J172" s="36"/>
     </row>
-    <row r="173" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>728</v>
       </c>
@@ -10050,7 +10059,7 @@
       </c>
       <c r="J173" s="36"/>
     </row>
-    <row r="174" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>732</v>
       </c>
@@ -10071,7 +10080,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>737</v>
       </c>
@@ -10092,7 +10101,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>742</v>
       </c>
@@ -10113,7 +10122,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>747</v>
       </c>
@@ -10132,7 +10141,7 @@
       </c>
       <c r="J177" s="36"/>
     </row>
-    <row r="178" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>751</v>
       </c>
@@ -10153,7 +10162,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>756</v>
       </c>
@@ -10174,7 +10183,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>761</v>
       </c>
@@ -10195,7 +10204,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>766</v>
       </c>
@@ -10214,7 +10223,7 @@
       </c>
       <c r="J181" s="36"/>
     </row>
-    <row r="182" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>770</v>
       </c>
@@ -10235,7 +10244,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>774</v>
       </c>
@@ -10256,7 +10265,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>779</v>
       </c>
@@ -10277,7 +10286,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>783</v>
       </c>
@@ -10296,7 +10305,7 @@
       </c>
       <c r="J185" s="36"/>
     </row>
-    <row r="186" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>787</v>
       </c>
@@ -10315,7 +10324,7 @@
       </c>
       <c r="J186" s="36"/>
     </row>
-    <row r="187" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>791</v>
       </c>
@@ -10334,7 +10343,7 @@
       </c>
       <c r="J187" s="36"/>
     </row>
-    <row r="188" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>795</v>
       </c>
@@ -10355,7 +10364,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>799</v>
       </c>
@@ -10374,7 +10383,7 @@
       </c>
       <c r="J189" s="36"/>
     </row>
-    <row r="190" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>803</v>
       </c>
@@ -10395,7 +10404,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>807</v>
       </c>
@@ -10414,7 +10423,7 @@
       </c>
       <c r="J191" s="36"/>
     </row>
-    <row r="192" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>811</v>
       </c>
@@ -10435,7 +10444,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>816</v>
       </c>
@@ -10454,7 +10463,7 @@
       </c>
       <c r="J193" s="36"/>
     </row>
-    <row r="194" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>820</v>
       </c>
@@ -10473,7 +10482,7 @@
       </c>
       <c r="J194" s="36"/>
     </row>
-    <row r="195" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>824</v>
       </c>
@@ -10494,7 +10503,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>829</v>
       </c>
@@ -10513,7 +10522,7 @@
       </c>
       <c r="J196" s="36"/>
     </row>
-    <row r="197" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>833</v>
       </c>
@@ -10532,7 +10541,7 @@
       </c>
       <c r="J197" s="36"/>
     </row>
-    <row r="198" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>837</v>
       </c>
@@ -10551,7 +10560,7 @@
       </c>
       <c r="J198" s="36"/>
     </row>
-    <row r="199" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>841</v>
       </c>
@@ -10572,7 +10581,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>845</v>
       </c>
@@ -10593,7 +10602,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>850</v>
       </c>
@@ -10612,7 +10621,7 @@
       </c>
       <c r="J201" s="36"/>
     </row>
-    <row r="202" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>854</v>
       </c>
@@ -10633,7 +10642,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>859</v>
       </c>
@@ -10654,7 +10663,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>864</v>
       </c>
@@ -10679,7 +10688,7 @@
       </c>
       <c r="J204" s="36"/>
     </row>
-    <row r="205" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>869</v>
       </c>
@@ -10701,7 +10710,7 @@
       </c>
       <c r="J205" s="36"/>
     </row>
-    <row r="206" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>872</v>
       </c>
@@ -10723,7 +10732,7 @@
       </c>
       <c r="J206" s="36"/>
     </row>
-    <row r="207" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>875</v>
       </c>
@@ -10745,7 +10754,7 @@
       </c>
       <c r="J207" s="36"/>
     </row>
-    <row r="208" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>878</v>
       </c>
@@ -10767,7 +10776,7 @@
       </c>
       <c r="J208" s="36"/>
     </row>
-    <row r="209" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>881</v>
       </c>
@@ -10789,7 +10798,7 @@
       </c>
       <c r="J209" s="36"/>
     </row>
-    <row r="210" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>884</v>
       </c>
@@ -10811,7 +10820,7 @@
       </c>
       <c r="J210" s="36"/>
     </row>
-    <row r="211" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>887</v>
       </c>
@@ -10833,7 +10842,7 @@
       </c>
       <c r="J211" s="36"/>
     </row>
-    <row r="212" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>889</v>
       </c>
@@ -10857,7 +10866,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>893</v>
       </c>
@@ -10879,7 +10888,7 @@
       </c>
       <c r="J213" s="36"/>
     </row>
-    <row r="214" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>896</v>
       </c>
@@ -10901,7 +10910,7 @@
       </c>
       <c r="J214" s="36"/>
     </row>
-    <row r="215" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>899</v>
       </c>
@@ -10923,7 +10932,7 @@
       </c>
       <c r="J215" s="36"/>
     </row>
-    <row r="216" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>902</v>
       </c>
@@ -10945,7 +10954,7 @@
       </c>
       <c r="J216" s="36"/>
     </row>
-    <row r="217" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>905</v>
       </c>
@@ -10967,7 +10976,7 @@
       </c>
       <c r="J217" s="36"/>
     </row>
-    <row r="218" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>908</v>
       </c>
@@ -10989,7 +10998,7 @@
       </c>
       <c r="J218" s="36"/>
     </row>
-    <row r="219" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>911</v>
       </c>
@@ -11011,7 +11020,7 @@
       </c>
       <c r="J219" s="36"/>
     </row>
-    <row r="220" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>913</v>
       </c>
@@ -11035,7 +11044,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>915</v>
       </c>
@@ -11057,7 +11066,7 @@
       </c>
       <c r="J221" s="36"/>
     </row>
-    <row r="222" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>918</v>
       </c>
@@ -11079,7 +11088,7 @@
       </c>
       <c r="J222" s="36"/>
     </row>
-    <row r="223" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>921</v>
       </c>
@@ -11101,7 +11110,7 @@
       </c>
       <c r="J223" s="36"/>
     </row>
-    <row r="224" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>923</v>
       </c>
@@ -11123,7 +11132,7 @@
       </c>
       <c r="J224" s="36"/>
     </row>
-    <row r="225" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>926</v>
       </c>
@@ -11145,7 +11154,7 @@
       </c>
       <c r="J225" s="36"/>
     </row>
-    <row r="226" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>929</v>
       </c>
@@ -11167,7 +11176,7 @@
       </c>
       <c r="J226" s="36"/>
     </row>
-    <row r="227" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>931</v>
       </c>
@@ -11189,7 +11198,7 @@
       </c>
       <c r="J227" s="36"/>
     </row>
-    <row r="228" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>934</v>
       </c>
@@ -11211,7 +11220,7 @@
       </c>
       <c r="J228" s="36"/>
     </row>
-    <row r="229" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>937</v>
       </c>
@@ -11233,7 +11242,7 @@
       </c>
       <c r="J229" s="36"/>
     </row>
-    <row r="230" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>939</v>
       </c>
@@ -11255,7 +11264,7 @@
       </c>
       <c r="J230" s="36"/>
     </row>
-    <row r="231" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>942</v>
       </c>
@@ -11277,7 +11286,7 @@
       </c>
       <c r="J231" s="36"/>
     </row>
-    <row r="232" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>945</v>
       </c>
@@ -11299,7 +11308,7 @@
       </c>
       <c r="J232" s="36"/>
     </row>
-    <row r="233" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>948</v>
       </c>
@@ -11321,7 +11330,7 @@
       </c>
       <c r="J233" s="36"/>
     </row>
-    <row r="234" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>951</v>
       </c>
@@ -11345,7 +11354,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>955</v>
       </c>
@@ -11367,7 +11376,7 @@
       </c>
       <c r="J235" s="36"/>
     </row>
-    <row r="236" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>957</v>
       </c>
@@ -11389,7 +11398,7 @@
       </c>
       <c r="J236" s="36"/>
     </row>
-    <row r="237" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>960</v>
       </c>
@@ -11410,7 +11419,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>964</v>
       </c>
@@ -11431,7 +11440,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>969</v>
       </c>
@@ -11450,7 +11459,7 @@
       </c>
       <c r="J239" s="36"/>
     </row>
-    <row r="240" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>973</v>
       </c>
@@ -11469,7 +11478,7 @@
       </c>
       <c r="J240" s="36"/>
     </row>
-    <row r="241" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>977</v>
       </c>
@@ -11496,7 +11505,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>983</v>
       </c>
@@ -11518,7 +11527,7 @@
       </c>
       <c r="J242" s="36"/>
     </row>
-    <row r="243" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>986</v>
       </c>
@@ -11540,7 +11549,7 @@
       </c>
       <c r="J243" s="36"/>
     </row>
-    <row r="244" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>989</v>
       </c>
@@ -11562,7 +11571,7 @@
       </c>
       <c r="J244" s="36"/>
     </row>
-    <row r="245" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>992</v>
       </c>
@@ -11584,7 +11593,7 @@
       </c>
       <c r="J245" s="36"/>
     </row>
-    <row r="246" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>995</v>
       </c>
@@ -11606,7 +11615,7 @@
       </c>
       <c r="J246" s="36"/>
     </row>
-    <row r="247" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>998</v>
       </c>
@@ -11628,7 +11637,7 @@
       </c>
       <c r="J247" s="36"/>
     </row>
-    <row r="248" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>1001</v>
       </c>
@@ -11650,7 +11659,7 @@
       </c>
       <c r="J248" s="36"/>
     </row>
-    <row r="249" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>1004</v>
       </c>
@@ -11672,7 +11681,7 @@
       </c>
       <c r="J249" s="36"/>
     </row>
-    <row r="250" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>1007</v>
       </c>
@@ -11694,7 +11703,7 @@
       </c>
       <c r="J250" s="36"/>
     </row>
-    <row r="251" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>1009</v>
       </c>
@@ -11716,7 +11725,7 @@
       </c>
       <c r="J251" s="36"/>
     </row>
-    <row r="252" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>1012</v>
       </c>
@@ -11738,7 +11747,7 @@
       </c>
       <c r="J252" s="36"/>
     </row>
-    <row r="253" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>1015</v>
       </c>
@@ -11760,7 +11769,7 @@
       </c>
       <c r="J253" s="36"/>
     </row>
-    <row r="254" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>1017</v>
       </c>
@@ -11782,7 +11791,7 @@
       </c>
       <c r="J254" s="36"/>
     </row>
-    <row r="255" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>1020</v>
       </c>
@@ -11804,7 +11813,7 @@
       </c>
       <c r="J255" s="36"/>
     </row>
-    <row r="256" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>1023</v>
       </c>
@@ -11826,7 +11835,7 @@
       </c>
       <c r="J256" s="36"/>
     </row>
-    <row r="257" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>1025</v>
       </c>
@@ -11848,7 +11857,7 @@
       </c>
       <c r="J257" s="36"/>
     </row>
-    <row r="258" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>1028</v>
       </c>
@@ -11870,7 +11879,7 @@
       </c>
       <c r="J258" s="36"/>
     </row>
-    <row r="259" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>1030</v>
       </c>
@@ -11892,7 +11901,7 @@
       </c>
       <c r="J259" s="36"/>
     </row>
-    <row r="260" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>1032</v>
       </c>
@@ -11914,7 +11923,7 @@
       </c>
       <c r="J260" s="36"/>
     </row>
-    <row r="261" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>1035</v>
       </c>
@@ -11936,7 +11945,7 @@
       </c>
       <c r="J261" s="36"/>
     </row>
-    <row r="262" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>1038</v>
       </c>
@@ -11958,7 +11967,7 @@
       </c>
       <c r="J262" s="36"/>
     </row>
-    <row r="263" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>1040</v>
       </c>
@@ -11980,7 +11989,7 @@
       </c>
       <c r="J263" s="36"/>
     </row>
-    <row r="264" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>1043</v>
       </c>
@@ -12002,7 +12011,7 @@
       </c>
       <c r="J264" s="36"/>
     </row>
-    <row r="265" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>1046</v>
       </c>
@@ -12024,7 +12033,7 @@
       </c>
       <c r="J265" s="36"/>
     </row>
-    <row r="266" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>1049</v>
       </c>
@@ -12045,7 +12054,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>1054</v>
       </c>
@@ -12066,7 +12075,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>1059</v>
       </c>
@@ -12085,7 +12094,7 @@
       </c>
       <c r="J268" s="36"/>
     </row>
-    <row r="269" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>1063</v>
       </c>
@@ -12106,7 +12115,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>1068</v>
       </c>
@@ -12125,7 +12134,7 @@
       </c>
       <c r="J270" s="36"/>
     </row>
-    <row r="271" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>1072</v>
       </c>
@@ -12144,7 +12153,7 @@
       </c>
       <c r="J271" s="36"/>
     </row>
-    <row r="272" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>1076</v>
       </c>
@@ -12165,7 +12174,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>1081</v>
       </c>
@@ -12186,7 +12195,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>1086</v>
       </c>
@@ -12207,7 +12216,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>1091</v>
       </c>
@@ -12234,7 +12243,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="276" spans="1:10" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" s="35" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A276" s="35" t="s">
         <v>1091</v>
       </c>
@@ -12262,7 +12271,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>1097</v>
       </c>
@@ -12284,7 +12293,7 @@
       </c>
       <c r="J277" s="36"/>
     </row>
-    <row r="278" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>1097</v>
       </c>
@@ -12306,7 +12315,7 @@
       </c>
       <c r="J278" s="36"/>
     </row>
-    <row r="279" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>1101</v>
       </c>
@@ -12328,7 +12337,7 @@
       </c>
       <c r="J279" s="36"/>
     </row>
-    <row r="280" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>1101</v>
       </c>
@@ -12350,7 +12359,7 @@
       </c>
       <c r="J280" s="36"/>
     </row>
-    <row r="281" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>1105</v>
       </c>
@@ -12372,7 +12381,7 @@
       </c>
       <c r="J281" s="36"/>
     </row>
-    <row r="282" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>1105</v>
       </c>
@@ -12394,7 +12403,7 @@
       </c>
       <c r="J282" s="36"/>
     </row>
-    <row r="283" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>218</v>
       </c>
@@ -12416,7 +12425,7 @@
       </c>
       <c r="J283" s="36"/>
     </row>
-    <row r="284" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>218</v>
       </c>
@@ -12438,7 +12447,7 @@
       </c>
       <c r="J284" s="36"/>
     </row>
-    <row r="285" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>1112</v>
       </c>
@@ -12460,7 +12469,7 @@
       </c>
       <c r="J285" s="36"/>
     </row>
-    <row r="286" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>1112</v>
       </c>
@@ -12482,7 +12491,7 @@
       </c>
       <c r="J286" s="36"/>
     </row>
-    <row r="287" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>1115</v>
       </c>
@@ -12504,7 +12513,7 @@
       </c>
       <c r="J287" s="36"/>
     </row>
-    <row r="288" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>1115</v>
       </c>
@@ -12526,7 +12535,7 @@
       </c>
       <c r="J288" s="36"/>
     </row>
-    <row r="289" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>1118</v>
       </c>
@@ -12548,7 +12557,7 @@
       </c>
       <c r="J289" s="36"/>
     </row>
-    <row r="290" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>1118</v>
       </c>
@@ -12570,7 +12579,7 @@
       </c>
       <c r="J290" s="36"/>
     </row>
-    <row r="291" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>1122</v>
       </c>
@@ -12592,7 +12601,7 @@
       </c>
       <c r="J291" s="36"/>
     </row>
-    <row r="292" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>1122</v>
       </c>
@@ -12614,7 +12623,7 @@
       </c>
       <c r="J292" s="36"/>
     </row>
-    <row r="293" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>1126</v>
       </c>
@@ -12636,7 +12645,7 @@
       </c>
       <c r="J293" s="36"/>
     </row>
-    <row r="294" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>1126</v>
       </c>
@@ -12658,7 +12667,7 @@
       </c>
       <c r="J294" s="36"/>
     </row>
-    <row r="295" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>1129</v>
       </c>
@@ -12680,7 +12689,7 @@
       </c>
       <c r="J295" s="36"/>
     </row>
-    <row r="296" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>1129</v>
       </c>
@@ -12702,7 +12711,7 @@
       </c>
       <c r="J296" s="36"/>
     </row>
-    <row r="297" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>1133</v>
       </c>
@@ -12724,7 +12733,7 @@
       </c>
       <c r="J297" s="36"/>
     </row>
-    <row r="298" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>1133</v>
       </c>
@@ -12746,7 +12755,7 @@
       </c>
       <c r="J298" s="36"/>
     </row>
-    <row r="299" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>1136</v>
       </c>
@@ -12768,7 +12777,7 @@
       </c>
       <c r="J299" s="36"/>
     </row>
-    <row r="300" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>1136</v>
       </c>
@@ -12790,7 +12799,7 @@
       </c>
       <c r="J300" s="36"/>
     </row>
-    <row r="301" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>1140</v>
       </c>
@@ -12812,7 +12821,7 @@
       </c>
       <c r="J301" s="36"/>
     </row>
-    <row r="302" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>1140</v>
       </c>
@@ -12834,7 +12843,7 @@
       </c>
       <c r="J302" s="36"/>
     </row>
-    <row r="303" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>1144</v>
       </c>
@@ -12856,7 +12865,7 @@
       </c>
       <c r="J303" s="36"/>
     </row>
-    <row r="304" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>1144</v>
       </c>
@@ -12878,7 +12887,7 @@
       </c>
       <c r="J304" s="36"/>
     </row>
-    <row r="305" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>1147</v>
       </c>
@@ -12900,7 +12909,7 @@
       </c>
       <c r="J305" s="36"/>
     </row>
-    <row r="306" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>1147</v>
       </c>
@@ -12922,7 +12931,7 @@
       </c>
       <c r="J306" s="36"/>
     </row>
-    <row r="307" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>1151</v>
       </c>
@@ -12944,7 +12953,7 @@
       </c>
       <c r="J307" s="36"/>
     </row>
-    <row r="308" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A308" s="35" t="s">
         <v>1151</v>
       </c>
@@ -12970,7 +12979,7 @@
       <c r="M308" s="35"/>
       <c r="N308" s="35"/>
     </row>
-    <row r="309" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>1154</v>
       </c>
@@ -12992,7 +13001,7 @@
       </c>
       <c r="J309" s="36"/>
     </row>
-    <row r="310" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>1154</v>
       </c>
@@ -13014,7 +13023,7 @@
       </c>
       <c r="J310" s="36"/>
     </row>
-    <row r="311" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>1157</v>
       </c>
@@ -13033,7 +13042,7 @@
       </c>
       <c r="J311" s="36"/>
     </row>
-    <row r="312" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>1161</v>
       </c>
@@ -13052,7 +13061,7 @@
       </c>
       <c r="J312" s="36"/>
     </row>
-    <row r="313" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>1165</v>
       </c>
@@ -13071,7 +13080,7 @@
       </c>
       <c r="J313" s="36"/>
     </row>
-    <row r="314" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>1169</v>
       </c>
@@ -13092,7 +13101,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="315" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>1174</v>
       </c>
@@ -13113,7 +13122,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="316" spans="1:14" ht="144" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>1178</v>
       </c>
@@ -13134,7 +13143,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="317" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>1183</v>
       </c>
@@ -13155,7 +13164,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="318" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>1188</v>
       </c>
@@ -13174,7 +13183,7 @@
       </c>
       <c r="J318" s="36"/>
     </row>
-    <row r="319" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>1192</v>
       </c>
@@ -13195,7 +13204,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="320" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>1197</v>
       </c>
@@ -13214,7 +13223,7 @@
       </c>
       <c r="J320" s="36"/>
     </row>
-    <row r="321" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>1201</v>
       </c>
@@ -13235,7 +13244,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>1206</v>
       </c>
@@ -13256,7 +13265,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>1210</v>
       </c>
@@ -13277,7 +13286,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>1215</v>
       </c>
@@ -13298,7 +13307,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>1220</v>
       </c>
@@ -13317,7 +13326,7 @@
       </c>
       <c r="J325" s="36"/>
     </row>
-    <row r="326" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>1224</v>
       </c>
@@ -13336,7 +13345,7 @@
       </c>
       <c r="J326" s="36"/>
     </row>
-    <row r="327" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>1228</v>
       </c>
@@ -13355,7 +13364,7 @@
       </c>
       <c r="J327" s="36"/>
     </row>
-    <row r="328" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>1232</v>
       </c>
@@ -13376,7 +13385,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>1237</v>
       </c>
@@ -13395,7 +13404,7 @@
       </c>
       <c r="J329" s="36"/>
     </row>
-    <row r="330" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>1241</v>
       </c>
@@ -13414,7 +13423,7 @@
       </c>
       <c r="J330" s="36"/>
     </row>
-    <row r="331" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>1245</v>
       </c>
@@ -13435,7 +13444,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>1250</v>
       </c>
@@ -13454,7 +13463,7 @@
       </c>
       <c r="J332" s="36"/>
     </row>
-    <row r="333" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>1254</v>
       </c>
@@ -13475,7 +13484,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>1258</v>
       </c>
@@ -13494,7 +13503,7 @@
       </c>
       <c r="J334" s="36"/>
     </row>
-    <row r="335" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>1262</v>
       </c>
@@ -13515,7 +13524,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>1266</v>
       </c>
@@ -13534,7 +13543,7 @@
       </c>
       <c r="J336" s="36"/>
     </row>
-    <row r="337" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>1270</v>
       </c>
@@ -13555,7 +13564,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="380" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>1274</v>
       </c>
@@ -13576,7 +13585,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>1278</v>
       </c>
@@ -13597,7 +13606,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>1283</v>
       </c>
@@ -13616,7 +13625,7 @@
       </c>
       <c r="J340" s="36"/>
     </row>
-    <row r="341" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>1287</v>
       </c>
@@ -13637,7 +13646,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>1291</v>
       </c>
@@ -13658,7 +13667,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>1295</v>
       </c>
@@ -13679,7 +13688,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>1300</v>
       </c>
@@ -13700,7 +13709,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>1305</v>
       </c>
@@ -13719,7 +13728,7 @@
       </c>
       <c r="J345" s="36"/>
     </row>
-    <row r="346" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>1309</v>
       </c>
@@ -13738,7 +13747,7 @@
       </c>
       <c r="J346" s="36"/>
     </row>
-    <row r="347" spans="1:10" ht="335" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>1313</v>
       </c>
@@ -13759,7 +13768,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>1318</v>
       </c>
@@ -13778,7 +13787,7 @@
       </c>
       <c r="J348" s="36"/>
     </row>
-    <row r="349" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>1322</v>
       </c>
@@ -13805,7 +13814,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>1327</v>
       </c>
@@ -13827,7 +13836,7 @@
       </c>
       <c r="J350" s="36"/>
     </row>
-    <row r="351" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>1330</v>
       </c>
@@ -13851,7 +13860,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>1333</v>
       </c>
@@ -13875,7 +13884,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>1336</v>
       </c>
@@ -13899,7 +13908,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>1339</v>
       </c>
@@ -13923,7 +13932,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>1341</v>
       </c>
@@ -13947,7 +13956,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>1343</v>
       </c>
@@ -13971,7 +13980,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>1345</v>
       </c>
@@ -13995,7 +14004,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>1348</v>
       </c>
@@ -14017,7 +14026,7 @@
       </c>
       <c r="J358" s="36"/>
     </row>
-    <row r="359" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>1350</v>
       </c>
@@ -14039,7 +14048,7 @@
       </c>
       <c r="J359" s="36"/>
     </row>
-    <row r="360" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>1353</v>
       </c>
@@ -14061,7 +14070,7 @@
       </c>
       <c r="J360" s="36"/>
     </row>
-    <row r="361" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>1356</v>
       </c>
@@ -14083,7 +14092,7 @@
       </c>
       <c r="J361" s="36"/>
     </row>
-    <row r="362" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>1358</v>
       </c>
@@ -14105,7 +14114,7 @@
       </c>
       <c r="J362" s="36"/>
     </row>
-    <row r="363" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>1360</v>
       </c>
@@ -14127,7 +14136,7 @@
       </c>
       <c r="J363" s="36"/>
     </row>
-    <row r="364" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>1363</v>
       </c>
@@ -14149,7 +14158,7 @@
       </c>
       <c r="J364" s="36"/>
     </row>
-    <row r="365" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>1366</v>
       </c>
@@ -14171,7 +14180,7 @@
       </c>
       <c r="J365" s="36"/>
     </row>
-    <row r="366" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>1368</v>
       </c>
@@ -14193,7 +14202,7 @@
       </c>
       <c r="J366" s="36"/>
     </row>
-    <row r="367" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>1371</v>
       </c>
@@ -14215,7 +14224,7 @@
       </c>
       <c r="J367" s="36"/>
     </row>
-    <row r="368" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>1373</v>
       </c>
@@ -14237,7 +14246,7 @@
       </c>
       <c r="J368" s="36"/>
     </row>
-    <row r="369" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>1375</v>
       </c>
@@ -14259,7 +14268,7 @@
       </c>
       <c r="J369" s="36"/>
     </row>
-    <row r="370" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>1378</v>
       </c>
@@ -14281,7 +14290,7 @@
       </c>
       <c r="J370" s="36"/>
     </row>
-    <row r="371" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>1380</v>
       </c>
@@ -14303,7 +14312,7 @@
       </c>
       <c r="J371" s="36"/>
     </row>
-    <row r="372" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>1382</v>
       </c>
@@ -14325,7 +14334,7 @@
       </c>
       <c r="J372" s="36"/>
     </row>
-    <row r="373" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>1385</v>
       </c>
@@ -14347,7 +14356,7 @@
       </c>
       <c r="J373" s="36"/>
     </row>
-    <row r="374" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>1387</v>
       </c>
@@ -14369,7 +14378,7 @@
       </c>
       <c r="J374" s="36"/>
     </row>
-    <row r="375" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>1389</v>
       </c>
@@ -14393,7 +14402,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>1393</v>
       </c>
@@ -14417,7 +14426,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>1395</v>
       </c>
@@ -14441,7 +14450,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>1398</v>
       </c>
@@ -14465,7 +14474,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>1400</v>
       </c>
@@ -14489,7 +14498,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>1403</v>
       </c>
@@ -14514,7 +14523,7 @@
       </c>
       <c r="J380" s="36"/>
     </row>
-    <row r="381" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>1406</v>
       </c>
@@ -14539,7 +14548,7 @@
       </c>
       <c r="J381" s="36"/>
     </row>
-    <row r="382" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>1409</v>
       </c>
@@ -14560,7 +14569,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>1413</v>
       </c>
@@ -14579,7 +14588,7 @@
       </c>
       <c r="J383" s="36"/>
     </row>
-    <row r="384" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>1417</v>
       </c>
@@ -14598,7 +14607,7 @@
       </c>
       <c r="J384" s="36"/>
     </row>
-    <row r="385" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>1421</v>
       </c>
@@ -14619,7 +14628,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>1425</v>
       </c>
@@ -14640,7 +14649,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>1430</v>
       </c>
@@ -14661,7 +14670,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>1434</v>
       </c>
@@ -14682,7 +14691,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>1439</v>
       </c>
@@ -14701,7 +14710,7 @@
       </c>
       <c r="J389" s="36"/>
     </row>
-    <row r="390" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>1443</v>
       </c>
@@ -14722,7 +14731,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>1448</v>
       </c>
@@ -14743,7 +14752,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>1453</v>
       </c>
@@ -14764,7 +14773,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>1458</v>
       </c>
@@ -14785,7 +14794,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>1463</v>
       </c>
@@ -14804,7 +14813,7 @@
       </c>
       <c r="J394" s="36"/>
     </row>
-    <row r="395" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>1467</v>
       </c>
@@ -14825,7 +14834,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>1471</v>
       </c>
@@ -14844,7 +14853,7 @@
       </c>
       <c r="J396" s="36"/>
     </row>
-    <row r="397" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>1475</v>
       </c>
@@ -14865,7 +14874,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>1480</v>
       </c>
@@ -14886,7 +14895,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>1485</v>
       </c>
@@ -14905,7 +14914,7 @@
       </c>
       <c r="J399" s="36"/>
     </row>
-    <row r="400" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>1489</v>
       </c>
@@ -14926,7 +14935,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>1494</v>
       </c>
@@ -14947,7 +14956,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>1499</v>
       </c>
@@ -14968,7 +14977,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>1504</v>
       </c>
@@ -14989,7 +14998,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>1509</v>
       </c>
@@ -15008,7 +15017,7 @@
       </c>
       <c r="J404" s="36"/>
     </row>
-    <row r="405" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>1513</v>
       </c>
@@ -15029,7 +15038,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>1518</v>
       </c>
@@ -15048,7 +15057,7 @@
       </c>
       <c r="J406" s="36"/>
     </row>
-    <row r="407" spans="1:10" ht="320" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>1522</v>
       </c>
@@ -15069,7 +15078,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>1527</v>
       </c>
@@ -15090,7 +15099,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>1532</v>
       </c>
@@ -15109,7 +15118,7 @@
       </c>
       <c r="J409" s="36"/>
     </row>
-    <row r="410" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>1536</v>
       </c>
@@ -15128,7 +15137,7 @@
       </c>
       <c r="J410" s="36"/>
     </row>
-    <row r="411" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>1540</v>
       </c>
@@ -15147,7 +15156,7 @@
       </c>
       <c r="J411" s="36"/>
     </row>
-    <row r="412" spans="1:10" ht="304" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>1544</v>
       </c>
@@ -15168,7 +15177,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>1549</v>
       </c>
@@ -15189,7 +15198,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="350" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>1554</v>
       </c>
@@ -15210,7 +15219,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>1559</v>
       </c>
@@ -15229,7 +15238,7 @@
       </c>
       <c r="J415" s="36"/>
     </row>
-    <row r="416" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>1563</v>
       </c>
@@ -15250,7 +15259,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>1567</v>
       </c>
@@ -15269,7 +15278,7 @@
       </c>
       <c r="J417" s="36"/>
     </row>
-    <row r="418" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>1571</v>
       </c>
@@ -15290,7 +15299,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>1575</v>
       </c>
@@ -15311,7 +15320,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>1579</v>
       </c>
@@ -15336,7 +15345,7 @@
       </c>
       <c r="J420" s="36"/>
     </row>
-    <row r="421" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>1584</v>
       </c>
@@ -15358,7 +15367,7 @@
       </c>
       <c r="J421" s="36"/>
     </row>
-    <row r="422" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>1587</v>
       </c>
@@ -15380,7 +15389,7 @@
       </c>
       <c r="J422" s="36"/>
     </row>
-    <row r="423" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>1590</v>
       </c>
@@ -15402,7 +15411,7 @@
       </c>
       <c r="J423" s="36"/>
     </row>
-    <row r="424" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>1593</v>
       </c>
@@ -15426,7 +15435,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>1595</v>
       </c>
@@ -15448,7 +15457,7 @@
       </c>
       <c r="J425" s="36"/>
     </row>
-    <row r="426" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>1598</v>
       </c>
@@ -15470,7 +15479,7 @@
       </c>
       <c r="J426" s="36"/>
     </row>
-    <row r="427" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>1601</v>
       </c>
@@ -15492,7 +15501,7 @@
       </c>
       <c r="J427" s="36"/>
     </row>
-    <row r="428" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>1604</v>
       </c>
@@ -15514,7 +15523,7 @@
       </c>
       <c r="J428" s="36"/>
     </row>
-    <row r="429" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>1607</v>
       </c>
@@ -15536,7 +15545,7 @@
       </c>
       <c r="J429" s="36"/>
     </row>
-    <row r="430" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>1610</v>
       </c>
@@ -15558,7 +15567,7 @@
       </c>
       <c r="J430" s="36"/>
     </row>
-    <row r="431" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>1613</v>
       </c>
@@ -15580,7 +15589,7 @@
       </c>
       <c r="J431" s="36"/>
     </row>
-    <row r="432" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>1616</v>
       </c>
@@ -15602,7 +15611,7 @@
       </c>
       <c r="J432" s="36"/>
     </row>
-    <row r="433" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>1618</v>
       </c>
@@ -15626,7 +15635,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>1620</v>
       </c>
@@ -15648,7 +15657,7 @@
       </c>
       <c r="J434" s="36"/>
     </row>
-    <row r="435" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>1623</v>
       </c>
@@ -15670,7 +15679,7 @@
       </c>
       <c r="J435" s="36"/>
     </row>
-    <row r="436" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>1626</v>
       </c>
@@ -15692,7 +15701,7 @@
       </c>
       <c r="J436" s="36"/>
     </row>
-    <row r="437" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>1629</v>
       </c>
@@ -15714,7 +15723,7 @@
       </c>
       <c r="J437" s="36"/>
     </row>
-    <row r="438" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>1632</v>
       </c>
@@ -15736,7 +15745,7 @@
       </c>
       <c r="J438" s="36"/>
     </row>
-    <row r="439" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>1635</v>
       </c>
@@ -15758,7 +15767,7 @@
       </c>
       <c r="J439" s="36"/>
     </row>
-    <row r="440" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>1638</v>
       </c>
@@ -15780,7 +15789,7 @@
       </c>
       <c r="J440" s="36"/>
     </row>
-    <row r="441" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>1641</v>
       </c>
@@ -15802,7 +15811,7 @@
       </c>
       <c r="J441" s="36"/>
     </row>
-    <row r="442" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>1644</v>
       </c>
@@ -15824,7 +15833,7 @@
       </c>
       <c r="J442" s="36"/>
     </row>
-    <row r="443" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>1647</v>
       </c>
@@ -15846,7 +15855,7 @@
       </c>
       <c r="J443" s="36"/>
     </row>
-    <row r="444" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>1650</v>
       </c>
@@ -15868,7 +15877,7 @@
       </c>
       <c r="J444" s="36"/>
     </row>
-    <row r="445" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>1653</v>
       </c>
@@ -15890,7 +15899,7 @@
       </c>
       <c r="J445" s="36"/>
     </row>
-    <row r="446" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>1656</v>
       </c>
@@ -15912,7 +15921,7 @@
       </c>
       <c r="J446" s="36"/>
     </row>
-    <row r="447" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>1659</v>
       </c>
@@ -15934,7 +15943,7 @@
       </c>
       <c r="J447" s="36"/>
     </row>
-    <row r="448" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>1662</v>
       </c>
@@ -15958,7 +15967,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>1664</v>
       </c>
@@ -15980,7 +15989,7 @@
       </c>
       <c r="J449" s="36"/>
     </row>
-    <row r="450" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>1667</v>
       </c>
@@ -16002,7 +16011,7 @@
       </c>
       <c r="J450" s="36"/>
     </row>
-    <row r="451" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>1670</v>
       </c>
@@ -16024,7 +16033,7 @@
       </c>
       <c r="J451" s="36"/>
     </row>
-    <row r="452" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>1673</v>
       </c>
@@ -16046,7 +16055,7 @@
       </c>
       <c r="J452" s="36"/>
     </row>
-    <row r="453" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>1676</v>
       </c>
@@ -16068,7 +16077,7 @@
       </c>
       <c r="J453" s="36"/>
     </row>
-    <row r="454" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>1679</v>
       </c>
@@ -16090,7 +16099,7 @@
       </c>
       <c r="J454" s="36"/>
     </row>
-    <row r="455" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>1682</v>
       </c>
@@ -16112,7 +16121,7 @@
       </c>
       <c r="J455" s="36"/>
     </row>
-    <row r="456" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>1685</v>
       </c>
@@ -16134,7 +16143,7 @@
       </c>
       <c r="J456" s="36"/>
     </row>
-    <row r="457" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>1688</v>
       </c>
@@ -16156,7 +16165,7 @@
       </c>
       <c r="J457" s="36"/>
     </row>
-    <row r="458" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>1691</v>
       </c>
@@ -16178,7 +16187,7 @@
       </c>
       <c r="J458" s="36"/>
     </row>
-    <row r="459" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>1694</v>
       </c>
@@ -16200,7 +16209,7 @@
       </c>
       <c r="J459" s="36"/>
     </row>
-    <row r="460" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>1697</v>
       </c>
@@ -16222,7 +16231,7 @@
       </c>
       <c r="J460" s="36"/>
     </row>
-    <row r="461" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>1700</v>
       </c>
@@ -16244,7 +16253,7 @@
       </c>
       <c r="J461" s="36"/>
     </row>
-    <row r="462" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>1703</v>
       </c>
@@ -16266,7 +16275,7 @@
       </c>
       <c r="J462" s="36"/>
     </row>
-    <row r="463" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>1706</v>
       </c>
@@ -16290,7 +16299,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>1708</v>
       </c>
@@ -16312,7 +16321,7 @@
       </c>
       <c r="J464" s="36"/>
     </row>
-    <row r="465" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>1711</v>
       </c>
@@ -16334,7 +16343,7 @@
       </c>
       <c r="J465" s="36"/>
     </row>
-    <row r="466" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>1714</v>
       </c>
@@ -16356,7 +16365,7 @@
       </c>
       <c r="J466" s="36"/>
     </row>
-    <row r="467" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>1717</v>
       </c>
@@ -16378,7 +16387,7 @@
       </c>
       <c r="J467" s="36"/>
     </row>
-    <row r="468" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>1720</v>
       </c>
@@ -16400,7 +16409,7 @@
       </c>
       <c r="J468" s="36"/>
     </row>
-    <row r="469" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>1723</v>
       </c>
@@ -16424,7 +16433,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="470" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>1725</v>
       </c>
@@ -16446,7 +16455,7 @@
       </c>
       <c r="J470" s="36"/>
     </row>
-    <row r="471" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>1728</v>
       </c>
@@ -16468,7 +16477,7 @@
       </c>
       <c r="J471" s="36"/>
     </row>
-    <row r="472" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>1731</v>
       </c>
@@ -16492,7 +16501,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="473" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>1733</v>
       </c>
@@ -16514,7 +16523,7 @@
       </c>
       <c r="J473" s="36"/>
     </row>
-    <row r="474" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>1736</v>
       </c>
@@ -16536,7 +16545,7 @@
       </c>
       <c r="J474" s="36"/>
     </row>
-    <row r="475" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>1739</v>
       </c>
@@ -16558,7 +16567,7 @@
       </c>
       <c r="J475" s="36"/>
     </row>
-    <row r="476" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>1742</v>
       </c>
@@ -16580,7 +16589,7 @@
       </c>
       <c r="J476" s="36"/>
     </row>
-    <row r="477" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>1745</v>
       </c>
@@ -16602,7 +16611,7 @@
       </c>
       <c r="J477" s="36"/>
     </row>
-    <row r="478" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>1748</v>
       </c>
@@ -16623,7 +16632,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="479" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>1753</v>
       </c>
@@ -16644,7 +16653,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>1758</v>
       </c>
@@ -16665,7 +16674,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>1763</v>
       </c>
@@ -16686,7 +16695,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>1768</v>
       </c>
@@ -16707,7 +16716,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>1773</v>
       </c>
@@ -16728,7 +16737,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>1778</v>
       </c>
@@ -16749,7 +16758,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>1783</v>
       </c>
@@ -16770,7 +16779,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>1788</v>
       </c>
@@ -16791,7 +16800,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>1793</v>
       </c>
@@ -16812,7 +16821,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>1798</v>
       </c>
@@ -16831,7 +16840,7 @@
       </c>
       <c r="J488" s="36"/>
     </row>
-    <row r="489" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>1802</v>
       </c>
@@ -16852,21 +16861,21 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" s="8"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="7"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="8"/>
       <c r="E493" s="34"/>
       <c r="G493" s="42"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="8"/>
     </row>
-    <row r="495" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="37" t="s">
         <v>32</v>
       </c>
@@ -16884,13 +16893,20 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>Publishers</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16902,20 +16918,20 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="86.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="86.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>35</v>
       </c>
@@ -16923,7 +16939,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>19</v>
       </c>
@@ -16934,7 +16950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
@@ -16945,7 +16961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
@@ -16956,7 +16972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>40</v>
       </c>
@@ -16967,7 +16983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>41</v>
       </c>
@@ -16978,7 +16994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
@@ -16989,7 +17005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -17000,7 +17016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
@@ -17011,7 +17027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -17022,7 +17038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>51</v>
       </c>
@@ -17033,7 +17049,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>131</v>
       </c>
@@ -17044,14 +17060,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>31</v>
       </c>
@@ -17062,7 +17078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
@@ -17073,7 +17089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="123.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>1905</v>
       </c>
@@ -17084,7 +17100,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
@@ -17095,7 +17111,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
@@ -17106,7 +17122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="35" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="35" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>1903</v>
       </c>
@@ -17117,7 +17133,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>29</v>
       </c>
@@ -17128,7 +17144,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
@@ -17139,7 +17155,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>92</v>
       </c>
@@ -17150,7 +17166,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
@@ -17161,14 +17177,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>32</v>
       </c>
@@ -17176,7 +17192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>27</v>
       </c>
@@ -17187,7 +17203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
@@ -17198,7 +17214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>33</v>
       </c>
@@ -17209,7 +17225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>25</v>
       </c>
@@ -17230,25 +17246,25 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="16" customWidth="1"/>
     <col min="3" max="3" width="47" style="16" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="16"/>
+    <col min="10" max="10" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
@@ -17262,7 +17278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -17276,7 +17292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
@@ -17290,7 +17306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>40</v>
       </c>
@@ -17304,7 +17320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>41</v>
       </c>
@@ -17318,7 +17334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
@@ -17332,7 +17348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -17346,7 +17362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
@@ -17357,7 +17373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>25</v>
       </c>
@@ -17368,10 +17384,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>51</v>
       </c>
@@ -17385,7 +17401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>131</v>
       </c>
@@ -17399,18 +17415,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>119</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="15" spans="1:10" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>31</v>
       </c>
@@ -17442,7 +17458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>82</v>
       </c>
@@ -17455,7 +17471,7 @@
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>83</v>
       </c>
@@ -17468,7 +17484,7 @@
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>84</v>
       </c>
@@ -17481,7 +17497,7 @@
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>85</v>
       </c>
@@ -17494,7 +17510,7 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>86</v>
       </c>
@@ -17507,10 +17523,10 @@
       </c>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>32</v>
       </c>
@@ -17528,16 +17544,23 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>Publishers</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17545,26 +17568,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="46" style="3" customWidth="1"/>
-    <col min="4" max="4" width="72.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68" style="4" customWidth="1"/>
     <col min="6" max="6" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="3"/>
+    <col min="10" max="10" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
@@ -17578,7 +17601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
@@ -17592,7 +17615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
@@ -17606,7 +17629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>40</v>
       </c>
@@ -17620,7 +17643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>41</v>
       </c>
@@ -17634,7 +17657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
@@ -17648,7 +17671,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
@@ -17662,7 +17685,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
@@ -17676,7 +17699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
@@ -17686,11 +17709,11 @@
       <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="D9" s="39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>51</v>
       </c>
@@ -17704,7 +17727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>131</v>
       </c>
@@ -17715,18 +17738,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -17758,7 +17781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>94</v>
       </c>
@@ -17781,7 +17804,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>100</v>
       </c>
@@ -17799,7 +17822,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>101</v>
       </c>
@@ -17820,7 +17843,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>102</v>
       </c>
@@ -17839,7 +17862,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>133</v>
       </c>
@@ -17857,7 +17880,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -17874,7 +17897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
@@ -17892,11 +17915,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>Publishers</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A16" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
@@ -17904,6 +17922,18 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17911,26 +17941,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BC6D4A-EE88-EF4C-B47B-08A2B35F3812}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="43.83203125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="56.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="36" customWidth="1"/>
     <col min="6" max="6" width="21" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.6640625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="36" customWidth="1"/>
     <col min="8" max="8" width="16" style="35" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.5" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="35"/>
+    <col min="9" max="9" width="39.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
@@ -17944,7 +17974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
@@ -17958,7 +17988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
@@ -17972,7 +18002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>40</v>
       </c>
@@ -17986,7 +18016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>41</v>
       </c>
@@ -18000,7 +18030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
@@ -18014,7 +18044,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
@@ -18028,7 +18058,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
@@ -18042,7 +18072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
@@ -18056,7 +18086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>51</v>
       </c>
@@ -18070,7 +18100,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>131</v>
       </c>
@@ -18081,18 +18111,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
     </row>
-    <row r="15" spans="1:10" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>31</v>
       </c>
@@ -18124,7 +18154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>366</v>
       </c>
@@ -18146,7 +18176,7 @@
       </c>
       <c r="J16" s="36"/>
     </row>
-    <row r="17" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>366</v>
       </c>
@@ -18168,7 +18198,7 @@
       </c>
       <c r="J17" s="36"/>
     </row>
-    <row r="18" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>369</v>
       </c>
@@ -18190,7 +18220,7 @@
       </c>
       <c r="J18" s="36"/>
     </row>
-    <row r="19" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>369</v>
       </c>
@@ -18212,7 +18242,7 @@
       </c>
       <c r="J19" s="36"/>
     </row>
-    <row r="20" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>372</v>
       </c>
@@ -18234,7 +18264,7 @@
       </c>
       <c r="J20" s="36"/>
     </row>
-    <row r="21" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>372</v>
       </c>
@@ -18256,7 +18286,7 @@
       </c>
       <c r="J21" s="36"/>
     </row>
-    <row r="22" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>375</v>
       </c>
@@ -18278,7 +18308,7 @@
       </c>
       <c r="J22" s="36"/>
     </row>
-    <row r="23" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>1115</v>
       </c>
@@ -18300,7 +18330,7 @@
       </c>
       <c r="J23" s="36"/>
     </row>
-    <row r="24" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>1115</v>
       </c>
@@ -18322,7 +18352,7 @@
       </c>
       <c r="J24" s="36"/>
     </row>
-    <row r="25" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>1118</v>
       </c>
@@ -18344,7 +18374,7 @@
       </c>
       <c r="J25" s="36"/>
     </row>
-    <row r="26" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>1118</v>
       </c>
@@ -18366,7 +18396,7 @@
       </c>
       <c r="J26" s="36"/>
     </row>
-    <row r="27" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>1122</v>
       </c>
@@ -18388,7 +18418,7 @@
       </c>
       <c r="J27" s="36"/>
     </row>
-    <row r="28" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>1122</v>
       </c>
@@ -18410,21 +18440,21 @@
       </c>
       <c r="J28" s="36"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="E32" s="34"/>
       <c r="G32" s="42"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>32</v>
       </c>
@@ -18442,36 +18472,43 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7" xr:uid="{71BDF466-626D-DA46-89A6-618460B87383}">
-      <formula1>Publishers</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{71BDF466-626D-DA46-89A6-618460B87383}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -18482,7 +18519,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -18493,7 +18530,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -18504,7 +18541,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -18515,7 +18552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -18524,6 +18561,17 @@
       </c>
       <c r="C6" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1919</v>
       </c>
     </row>
   </sheetData>
@@ -18533,6 +18581,7 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{DE8F3A54-B04C-44AE-8CCB-77F25B0099EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -18543,17 +18592,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
@@ -18561,7 +18610,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -18569,7 +18618,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -18806,18 +18855,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18840,14 +18889,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{915D0155-BA4B-44F2-9111-0BC494AB9DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14FB0D8E-A90D-4B0C-ACC2-9EDC9E6A8195}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="97bb4d45-1042-4c49-a7f1-494cbdb4d63a"/>
@@ -18862,4 +18903,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{915D0155-BA4B-44F2-9111-0BC494AB9DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>